--- a/축구.xlsx
+++ b/축구.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KS50504\Documents\workspace\Test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bcea01c95a3191af/문서/workspace/TEAM/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_300755D3AFA1192C69EF23A80907CA65663ECA37" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28545" windowHeight="11460" tabRatio="599"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="599" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="구단ID" sheetId="1" r:id="rId1"/>
@@ -322,7 +323,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -531,7 +532,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="표준 2" xfId="1"/>
+    <cellStyle name="표준 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -803,12 +804,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -816,6 +817,7 @@
     <col min="1" max="1" width="13.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.125" style="1" customWidth="1"/>
     <col min="3" max="3" width="15.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -1022,7 +1024,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr codeName="Sheet14"/>
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -1216,7 +1218,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr codeName="Sheet15"/>
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -1410,7 +1412,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr codeName="Sheet16"/>
   <dimension ref="A1:E8"/>
   <sheetViews>
@@ -1570,7 +1572,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr codeName="Sheet17"/>
   <dimension ref="A1:E12"/>
   <sheetViews>
@@ -1798,7 +1800,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -1991,7 +1993,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:E11"/>
   <sheetViews>
@@ -2202,7 +2204,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -2395,7 +2397,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -2588,7 +2590,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:E8"/>
   <sheetViews>
@@ -2748,7 +2750,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:E11"/>
   <sheetViews>
@@ -2958,7 +2960,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:E9"/>
   <sheetViews>
@@ -3135,7 +3137,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:E11"/>
   <sheetViews>
